--- a/Ball Data.xlsx
+++ b/Ball Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roryo\OneDrive\Desktop\Computer Vision Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{183341F9-5CDB-4C9F-82F6-0E2298D4DC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6984AC-73C6-414D-AEBB-0ED6335086C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5AF9A1B-8753-45C1-8B00-00922D002F3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B5AF9A1B-8753-45C1-8B00-00922D002F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
